--- a/dados/Jogos XLSX/2023 Mineiro - Tigres vs América.xlsx
+++ b/dados/Jogos XLSX/2023 Mineiro - Tigres vs América.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\StatsTigres\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\StatsTigres\dados\Jogos XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B43E47-0287-4D58-8F5A-569929BE74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614F9A81-724E-44CE-8DF2-3A8B0C3F2FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
   <si>
     <t>Equipe</t>
   </si>
@@ -345,6 +345,9 @@
   <si>
     <t>Holding</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
 </sst>
 </file>
 
@@ -361,33 +364,39 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -935,7 +944,7 @@
   </sheetPr>
   <dimension ref="A1:BF994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -35647,15 +35656,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
@@ -35671,8 +35680,11 @@
       <c r="E1" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>95</v>
       </c>
@@ -35688,47 +35700,51 @@
       <c r="E2" s="21">
         <v>2023</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>CONCATENATE(E2," - ",D2," - ",B2," - vs. ",A2," - ",C2)</f>
+        <v>2023 - Mineiro - Rodada 1 - vs. América - Casa</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
